--- a/code/bbgm_init_data.xlsx
+++ b/code/bbgm_init_data.xlsx
@@ -530,7 +530,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="296">
   <si>
     <t>MIN</t>
   </si>
@@ -1364,6 +1364,60 @@
   </si>
   <si>
     <t>VE</t>
+  </si>
+  <si>
+    <t>Algeria</t>
+  </si>
+  <si>
+    <t>DZA</t>
+  </si>
+  <si>
+    <t>DZ</t>
+  </si>
+  <si>
+    <t>Bosnia and Herzegovina</t>
+  </si>
+  <si>
+    <t>BIH</t>
+  </si>
+  <si>
+    <t>BA</t>
+  </si>
+  <si>
+    <t>Cuba</t>
+  </si>
+  <si>
+    <t>CUB</t>
+  </si>
+  <si>
+    <t>CU</t>
+  </si>
+  <si>
+    <t>Gabon</t>
+  </si>
+  <si>
+    <t>GAB</t>
+  </si>
+  <si>
+    <t>GA</t>
+  </si>
+  <si>
+    <t>Netherlands</t>
+  </si>
+  <si>
+    <t>NLD</t>
+  </si>
+  <si>
+    <t>NL</t>
+  </si>
+  <si>
+    <t>Zimbabwe</t>
+  </si>
+  <si>
+    <t>ZWE</t>
+  </si>
+  <si>
+    <t>ZW</t>
   </si>
 </sst>
 </file>
@@ -1839,13 +1893,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D69"/>
+  <dimension ref="A1:D75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
+      <selection activeCell="A76" sqref="A76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="31.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -1862,955 +1919,1039 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>74</v>
+      <c r="A2" t="s">
+        <v>278</v>
       </c>
       <c r="B2" t="s">
-        <v>75</v>
+        <v>279</v>
       </c>
       <c r="C2" t="s">
-        <v>76</v>
+        <v>280</v>
       </c>
       <c r="D2">
-        <v>32</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D3">
-        <v>4</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D4">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B5" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C5" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D5">
-        <v>37</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B6" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C6" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D6">
-        <v>10</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>89</v>
+        <v>281</v>
       </c>
       <c r="B7" t="s">
-        <v>90</v>
+        <v>282</v>
       </c>
       <c r="C7" t="s">
-        <v>91</v>
+        <v>283</v>
       </c>
       <c r="D7">
-        <v>64</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B8" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C8" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D8">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B9" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C9" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D9">
-        <v>83</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B10" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C10" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D10">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="B11" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C11" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D11">
-        <v>68</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B12" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C12" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D12">
-        <v>14</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B13" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C13" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D13">
-        <v>9</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="B14" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C14" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="D14">
-        <v>89</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>113</v>
+        <v>284</v>
       </c>
       <c r="B15" t="s">
-        <v>114</v>
+        <v>285</v>
       </c>
       <c r="C15" t="s">
-        <v>115</v>
+        <v>286</v>
       </c>
       <c r="D15">
-        <v>19</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="B16" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="C16" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="D16">
-        <v>60</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="B17" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="C17" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="D17">
-        <v>34</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="B18" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="C18" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="D18">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="B19" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="C19" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="D19">
-        <v>36</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="B20" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="C20" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="D20">
-        <v>18</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="B21" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="C21" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="D21">
-        <v>42</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>134</v>
+        <v>287</v>
       </c>
       <c r="B22" t="s">
-        <v>135</v>
+        <v>288</v>
       </c>
       <c r="C22" t="s">
+        <v>289</v>
+      </c>
+      <c r="D22">
         <v>136</v>
-      </c>
-      <c r="D22">
-        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="B23" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="C23" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="D23">
-        <v>127</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="B24" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="C24" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="D24">
-        <v>114</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="B25" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="C25" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="D25">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="B26" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="C26" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="D26">
-        <v>46</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="B27" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="C27" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="D27">
-        <v>73</v>
+        <v>127</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="B28" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="C28" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="D28">
-        <v>22</v>
+        <v>114</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="B29" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="C29" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="D29">
-        <v>79</v>
+        <v>39</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="B30" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="C30" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="D30">
-        <v>41</v>
+        <v>46</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="B31" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="C31" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="D31">
-        <v>12</v>
+        <v>73</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="B32" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="C32" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="D32">
-        <v>48</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="B33" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="C33" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="D33">
-        <v>40</v>
+        <v>79</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="B34" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="C34" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="D34">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="B35" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="C35" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="D35">
-        <v>75</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="B36" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="C36" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="D36">
-        <v>27</v>
+        <v>48</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="B37" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="C37" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="D37">
-        <v>57</v>
+        <v>40</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="B38" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="C38" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="D38">
-        <v>8</v>
+        <v>38</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="B39" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="C39" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="D39">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="B40" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="C40" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="D40">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="B41" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="C41" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="D41">
-        <v>26</v>
+        <v>57</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="B42" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="C42" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="D42">
-        <v>67</v>
+        <v>8</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="B43" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="C43" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="D43">
-        <v>93</v>
+        <v>74</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="B44" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="C44" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="D44">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="B45" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="C45" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="D45">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="B46" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="C46" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="D46">
-        <v>47</v>
+        <v>67</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="B47" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="C47" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="D47">
-        <v>31</v>
+        <v>93</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
-        <v>212</v>
+        <v>290</v>
       </c>
       <c r="B48" t="s">
-        <v>213</v>
+        <v>291</v>
       </c>
       <c r="C48" t="s">
-        <v>214</v>
+        <v>292</v>
       </c>
       <c r="D48">
-        <v>13</v>
+        <v>44</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="B49" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="C49" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="D49">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
       <c r="B50" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
       <c r="C50" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
       <c r="D50">
-        <v>72</v>
+        <v>23</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
-        <v>221</v>
+        <v>206</v>
       </c>
       <c r="B51" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
       <c r="C51" t="s">
-        <v>223</v>
+        <v>208</v>
       </c>
       <c r="D51">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="B52" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="C52" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="D52">
-        <v>11</v>
+        <v>31</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
       <c r="B53" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
       <c r="C53" t="s">
-        <v>229</v>
+        <v>214</v>
       </c>
       <c r="D53">
-        <v>91</v>
+        <v>13</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
-        <v>230</v>
+        <v>215</v>
       </c>
       <c r="B54" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
       <c r="C54" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="D54">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
-        <v>233</v>
+        <v>218</v>
       </c>
       <c r="B55" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="C55" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="D55">
-        <v>5</v>
+        <v>72</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
       <c r="B56" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="C56" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
       <c r="D56">
-        <v>17</v>
+        <v>54</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="B57" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="C57" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
       <c r="D57">
-        <v>125</v>
+        <v>11</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
       <c r="B58" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="C58" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="D58">
-        <v>30</v>
+        <v>91</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="B59" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="C59" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="D59">
-        <v>2</v>
+        <v>35</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
-        <v>248</v>
+        <v>233</v>
       </c>
       <c r="B60" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
       <c r="C60" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
       <c r="D60">
-        <v>95</v>
+        <v>5</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="7" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
       <c r="B61" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
       <c r="C61" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="D61">
-        <v>65</v>
+        <v>17</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="7" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
       <c r="B62" t="s">
-        <v>255</v>
+        <v>240</v>
       </c>
       <c r="C62" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="D62">
-        <v>33</v>
+        <v>125</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
       <c r="B63" t="s">
-        <v>258</v>
+        <v>243</v>
       </c>
       <c r="C63" t="s">
-        <v>259</v>
+        <v>244</v>
       </c>
       <c r="D63">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="7" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
       <c r="B64" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
       <c r="C64" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="D64">
-        <v>51</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="7" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
       <c r="B65" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
       <c r="C65" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
       <c r="D65">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="7" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
       <c r="B66" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="C66" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
       <c r="D66">
-        <v>29</v>
+        <v>65</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="7" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="B67" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="C67" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
       <c r="D67">
-        <v>1</v>
+        <v>33</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="7" t="s">
-        <v>272</v>
+        <v>257</v>
       </c>
       <c r="B68" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
       <c r="C68" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="D68">
-        <v>43</v>
+        <v>15</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="B69" t="s">
+        <v>261</v>
+      </c>
+      <c r="C69" t="s">
+        <v>262</v>
+      </c>
+      <c r="D69">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="B70" t="s">
+        <v>264</v>
+      </c>
+      <c r="C70" t="s">
+        <v>265</v>
+      </c>
+      <c r="D70">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="B71" t="s">
+        <v>267</v>
+      </c>
+      <c r="C71" t="s">
+        <v>268</v>
+      </c>
+      <c r="D71">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="B72" t="s">
+        <v>270</v>
+      </c>
+      <c r="C72" t="s">
+        <v>271</v>
+      </c>
+      <c r="D72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="B73" t="s">
+        <v>273</v>
+      </c>
+      <c r="C73" t="s">
+        <v>274</v>
+      </c>
+      <c r="D73">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B74" t="s">
         <v>276</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C74" t="s">
         <v>277</v>
       </c>
-      <c r="D69">
+      <c r="D74">
         <v>20</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="B75" t="s">
+        <v>294</v>
+      </c>
+      <c r="C75" t="s">
+        <v>295</v>
+      </c>
+      <c r="D75">
+        <v>139</v>
       </c>
     </row>
   </sheetData>

--- a/code/bbgm_init_data.xlsx
+++ b/code/bbgm_init_data.xlsx
@@ -530,7 +530,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="332">
   <si>
     <t>MIN</t>
   </si>
@@ -1418,6 +1418,114 @@
   </si>
   <si>
     <t>ZW</t>
+  </si>
+  <si>
+    <t>Burkina Faso</t>
+  </si>
+  <si>
+    <t>BFA</t>
+  </si>
+  <si>
+    <t>BF</t>
+  </si>
+  <si>
+    <t>Malaysia</t>
+  </si>
+  <si>
+    <t>MYS</t>
+  </si>
+  <si>
+    <t>MY</t>
+  </si>
+  <si>
+    <t>Republic of the Congo</t>
+  </si>
+  <si>
+    <t>COG</t>
+  </si>
+  <si>
+    <t>CG</t>
+  </si>
+  <si>
+    <t>Sweden</t>
+  </si>
+  <si>
+    <t>SWE</t>
+  </si>
+  <si>
+    <t>SE</t>
+  </si>
+  <si>
+    <t>Thailand</t>
+  </si>
+  <si>
+    <t>THA</t>
+  </si>
+  <si>
+    <t>TH</t>
+  </si>
+  <si>
+    <t>Bahrain</t>
+  </si>
+  <si>
+    <t>BHR</t>
+  </si>
+  <si>
+    <t>BH</t>
+  </si>
+  <si>
+    <t>Paraguay</t>
+  </si>
+  <si>
+    <t>PRY</t>
+  </si>
+  <si>
+    <t>PY</t>
+  </si>
+  <si>
+    <t>Chad</t>
+  </si>
+  <si>
+    <t>TCD</t>
+  </si>
+  <si>
+    <t>TD</t>
+  </si>
+  <si>
+    <t>Togo</t>
+  </si>
+  <si>
+    <t>TGO</t>
+  </si>
+  <si>
+    <t>TG</t>
+  </si>
+  <si>
+    <t>Uzbekistan</t>
+  </si>
+  <si>
+    <t>UZB</t>
+  </si>
+  <si>
+    <t>UZ</t>
+  </si>
+  <si>
+    <t>Cape Verde</t>
+  </si>
+  <si>
+    <t>North Macedonia</t>
+  </si>
+  <si>
+    <t>CPV</t>
+  </si>
+  <si>
+    <t>MKD</t>
+  </si>
+  <si>
+    <t>CV</t>
+  </si>
+  <si>
+    <t>MK</t>
   </si>
 </sst>
 </file>
@@ -1893,10 +2001,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D75"/>
+  <dimension ref="A1:D87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
-      <selection activeCell="A76" sqref="A76"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1976,986 +2084,1158 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>83</v>
+        <v>311</v>
       </c>
       <c r="B6" t="s">
-        <v>84</v>
+        <v>312</v>
       </c>
       <c r="C6" t="s">
-        <v>85</v>
+        <v>313</v>
       </c>
       <c r="D6">
-        <v>37</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>281</v>
+        <v>83</v>
       </c>
       <c r="B7" t="s">
-        <v>282</v>
+        <v>84</v>
       </c>
       <c r="C7" t="s">
-        <v>283</v>
+        <v>85</v>
       </c>
       <c r="D7">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>86</v>
+        <v>281</v>
       </c>
       <c r="B8" t="s">
-        <v>87</v>
+        <v>282</v>
       </c>
       <c r="C8" t="s">
-        <v>88</v>
+        <v>283</v>
       </c>
       <c r="D8">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B9" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C9" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D9">
-        <v>64</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>92</v>
+        <v>296</v>
       </c>
       <c r="B10" t="s">
-        <v>93</v>
+        <v>297</v>
       </c>
       <c r="C10" t="s">
-        <v>94</v>
+        <v>298</v>
       </c>
       <c r="D10">
-        <v>21</v>
+        <v>138</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B11" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C11" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D11">
-        <v>83</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B12" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C12" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D12">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>101</v>
+      <c r="A13" t="s">
+        <v>326</v>
       </c>
       <c r="B13" t="s">
-        <v>102</v>
+        <v>328</v>
       </c>
       <c r="C13" t="s">
-        <v>103</v>
+        <v>330</v>
       </c>
       <c r="D13">
-        <v>68</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="B14" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="C14" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="D14">
-        <v>14</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>284</v>
+        <v>317</v>
       </c>
       <c r="B15" t="s">
-        <v>285</v>
+        <v>318</v>
       </c>
       <c r="C15" t="s">
-        <v>286</v>
+        <v>319</v>
       </c>
       <c r="D15">
-        <v>63</v>
+        <v>104</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B16" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="C16" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="D16">
-        <v>9</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="B17" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="C17" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="D17">
-        <v>89</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="B18" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="C18" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="D18">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>116</v>
+        <v>284</v>
       </c>
       <c r="B19" t="s">
-        <v>117</v>
+        <v>285</v>
       </c>
       <c r="C19" t="s">
-        <v>118</v>
+        <v>286</v>
       </c>
       <c r="D19">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="B20" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="C20" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="D20">
-        <v>34</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="B21" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="C21" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="D21">
-        <v>6</v>
+        <v>89</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>287</v>
+        <v>113</v>
       </c>
       <c r="B22" t="s">
-        <v>288</v>
+        <v>114</v>
       </c>
       <c r="C22" t="s">
-        <v>289</v>
+        <v>115</v>
       </c>
       <c r="D22">
-        <v>136</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="B23" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="C23" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="D23">
-        <v>36</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="B24" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="C24" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="D24">
-        <v>18</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="B25" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="C25" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="D25">
-        <v>42</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
-        <v>134</v>
+        <v>287</v>
       </c>
       <c r="B26" t="s">
-        <v>135</v>
+        <v>288</v>
       </c>
       <c r="C26" t="s">
+        <v>289</v>
+      </c>
+      <c r="D26">
         <v>136</v>
-      </c>
-      <c r="D26">
-        <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="B27" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="C27" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="D27">
-        <v>127</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="B28" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="C28" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="D28">
-        <v>114</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="B29" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="C29" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="D29">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="B30" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="C30" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="D30">
-        <v>46</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="B31" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="C31" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="D31">
-        <v>73</v>
+        <v>127</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="B32" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="C32" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="D32">
-        <v>22</v>
+        <v>114</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="B33" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="C33" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="D33">
-        <v>79</v>
+        <v>39</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="B34" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="C34" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="D34">
-        <v>41</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="B35" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="C35" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="D35">
-        <v>12</v>
+        <v>73</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="B36" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="C36" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="D36">
-        <v>48</v>
+        <v>22</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="B37" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="C37" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="D37">
-        <v>40</v>
+        <v>79</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="B38" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="C38" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="D38">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="B39" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="C39" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="D39">
-        <v>75</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="B40" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="C40" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="D40">
-        <v>27</v>
+        <v>48</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="B41" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="C41" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="D41">
-        <v>57</v>
+        <v>40</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="B42" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="C42" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="D42">
-        <v>8</v>
+        <v>38</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="B43" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="C43" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="D43">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="B44" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="C44" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="D44">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="B45" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="C45" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="D45">
-        <v>26</v>
+        <v>57</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="B46" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="C46" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="D46">
-        <v>67</v>
+        <v>8</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
-        <v>197</v>
+        <v>299</v>
       </c>
       <c r="B47" t="s">
-        <v>198</v>
+        <v>300</v>
       </c>
       <c r="C47" t="s">
-        <v>199</v>
+        <v>301</v>
       </c>
       <c r="D47">
-        <v>93</v>
+        <v>121</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
-        <v>290</v>
+        <v>185</v>
       </c>
       <c r="B48" t="s">
-        <v>291</v>
+        <v>186</v>
       </c>
       <c r="C48" t="s">
-        <v>292</v>
+        <v>187</v>
       </c>
       <c r="D48">
-        <v>44</v>
+        <v>74</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="B49" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="C49" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="D49">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="B50" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="C50" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="D50">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="B51" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="C51" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="D51">
-        <v>47</v>
+        <v>67</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="B52" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="C52" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="D52">
-        <v>31</v>
+        <v>93</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
-        <v>212</v>
+        <v>290</v>
       </c>
       <c r="B53" t="s">
-        <v>213</v>
+        <v>291</v>
       </c>
       <c r="C53" t="s">
-        <v>214</v>
+        <v>292</v>
       </c>
       <c r="D53">
-        <v>13</v>
+        <v>44</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="B54" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="C54" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="D54">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
       <c r="B55" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
       <c r="C55" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
       <c r="D55">
-        <v>72</v>
+        <v>23</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="7" t="s">
-        <v>221</v>
+      <c r="A56" t="s">
+        <v>327</v>
       </c>
       <c r="B56" t="s">
-        <v>222</v>
+        <v>329</v>
       </c>
       <c r="C56" t="s">
-        <v>223</v>
+        <v>331</v>
       </c>
       <c r="D56">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
       <c r="B57" t="s">
-        <v>225</v>
+        <v>207</v>
       </c>
       <c r="C57" t="s">
-        <v>226</v>
+        <v>208</v>
       </c>
       <c r="D57">
-        <v>11</v>
+        <v>47</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
-        <v>227</v>
+        <v>314</v>
       </c>
       <c r="B58" t="s">
-        <v>228</v>
+        <v>315</v>
       </c>
       <c r="C58" t="s">
-        <v>229</v>
+        <v>316</v>
       </c>
       <c r="D58">
-        <v>91</v>
+        <v>71</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
-        <v>230</v>
+        <v>209</v>
       </c>
       <c r="B59" t="s">
-        <v>231</v>
+        <v>210</v>
       </c>
       <c r="C59" t="s">
-        <v>232</v>
+        <v>211</v>
       </c>
       <c r="D59">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
-        <v>233</v>
+        <v>212</v>
       </c>
       <c r="B60" t="s">
-        <v>234</v>
+        <v>213</v>
       </c>
       <c r="C60" t="s">
-        <v>235</v>
+        <v>214</v>
       </c>
       <c r="D60">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="7" t="s">
-        <v>236</v>
+        <v>215</v>
       </c>
       <c r="B61" t="s">
-        <v>237</v>
+        <v>216</v>
       </c>
       <c r="C61" t="s">
-        <v>238</v>
+        <v>217</v>
       </c>
       <c r="D61">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="7" t="s">
-        <v>239</v>
+        <v>218</v>
       </c>
       <c r="B62" t="s">
-        <v>240</v>
+        <v>219</v>
       </c>
       <c r="C62" t="s">
-        <v>241</v>
+        <v>220</v>
       </c>
       <c r="D62">
-        <v>125</v>
+        <v>72</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
       <c r="B63" t="s">
-        <v>243</v>
+        <v>303</v>
       </c>
       <c r="C63" t="s">
-        <v>244</v>
+        <v>304</v>
       </c>
       <c r="D63">
-        <v>30</v>
+        <v>115</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="7" t="s">
-        <v>245</v>
+        <v>221</v>
       </c>
       <c r="B64" t="s">
-        <v>246</v>
+        <v>222</v>
       </c>
       <c r="C64" t="s">
-        <v>247</v>
+        <v>223</v>
       </c>
       <c r="D64">
-        <v>2</v>
+        <v>54</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="7" t="s">
-        <v>248</v>
+        <v>224</v>
       </c>
       <c r="B65" t="s">
-        <v>249</v>
+        <v>225</v>
       </c>
       <c r="C65" t="s">
-        <v>250</v>
+        <v>226</v>
       </c>
       <c r="D65">
-        <v>95</v>
+        <v>11</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="7" t="s">
-        <v>251</v>
+        <v>227</v>
       </c>
       <c r="B66" t="s">
-        <v>252</v>
+        <v>228</v>
       </c>
       <c r="C66" t="s">
-        <v>253</v>
+        <v>229</v>
       </c>
       <c r="D66">
-        <v>65</v>
+        <v>91</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="7" t="s">
-        <v>254</v>
+        <v>230</v>
       </c>
       <c r="B67" t="s">
-        <v>255</v>
+        <v>231</v>
       </c>
       <c r="C67" t="s">
-        <v>256</v>
+        <v>232</v>
       </c>
       <c r="D67">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="7" t="s">
-        <v>257</v>
+        <v>233</v>
       </c>
       <c r="B68" t="s">
-        <v>258</v>
+        <v>234</v>
       </c>
       <c r="C68" t="s">
-        <v>259</v>
+        <v>235</v>
       </c>
       <c r="D68">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
-        <v>260</v>
+        <v>236</v>
       </c>
       <c r="B69" t="s">
-        <v>261</v>
+        <v>237</v>
       </c>
       <c r="C69" t="s">
-        <v>262</v>
+        <v>238</v>
       </c>
       <c r="D69">
-        <v>51</v>
+        <v>17</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="7" t="s">
-        <v>263</v>
+        <v>239</v>
       </c>
       <c r="B70" t="s">
-        <v>264</v>
+        <v>240</v>
       </c>
       <c r="C70" t="s">
-        <v>265</v>
+        <v>241</v>
       </c>
       <c r="D70">
-        <v>101</v>
+        <v>125</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="7" t="s">
-        <v>266</v>
+        <v>242</v>
       </c>
       <c r="B71" t="s">
-        <v>267</v>
+        <v>243</v>
       </c>
       <c r="C71" t="s">
-        <v>268</v>
+        <v>244</v>
       </c>
       <c r="D71">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="7" t="s">
-        <v>269</v>
+        <v>245</v>
       </c>
       <c r="B72" t="s">
-        <v>270</v>
+        <v>246</v>
       </c>
       <c r="C72" t="s">
-        <v>271</v>
+        <v>247</v>
       </c>
       <c r="D72">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="7" t="s">
-        <v>272</v>
+        <v>305</v>
       </c>
       <c r="B73" t="s">
-        <v>273</v>
+        <v>306</v>
       </c>
       <c r="C73" t="s">
-        <v>274</v>
+        <v>307</v>
       </c>
       <c r="D73">
-        <v>43</v>
+        <v>55</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="7" t="s">
-        <v>275</v>
+        <v>248</v>
       </c>
       <c r="B74" t="s">
-        <v>276</v>
+        <v>249</v>
       </c>
       <c r="C74" t="s">
-        <v>277</v>
+        <v>250</v>
       </c>
       <c r="D74">
-        <v>20</v>
+        <v>95</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="B75" t="s">
+        <v>252</v>
+      </c>
+      <c r="C75" t="s">
+        <v>253</v>
+      </c>
+      <c r="D75">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="B76" t="s">
+        <v>309</v>
+      </c>
+      <c r="C76" t="s">
+        <v>310</v>
+      </c>
+      <c r="D76">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="B77" t="s">
+        <v>321</v>
+      </c>
+      <c r="C77" t="s">
+        <v>322</v>
+      </c>
+      <c r="D77">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="B78" t="s">
+        <v>255</v>
+      </c>
+      <c r="C78" t="s">
+        <v>256</v>
+      </c>
+      <c r="D78">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="B79" t="s">
+        <v>258</v>
+      </c>
+      <c r="C79" t="s">
+        <v>259</v>
+      </c>
+      <c r="D79">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="B80" t="s">
+        <v>261</v>
+      </c>
+      <c r="C80" t="s">
+        <v>262</v>
+      </c>
+      <c r="D80">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="B81" t="s">
+        <v>264</v>
+      </c>
+      <c r="C81" t="s">
+        <v>265</v>
+      </c>
+      <c r="D81">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="B82" t="s">
+        <v>267</v>
+      </c>
+      <c r="C82" t="s">
+        <v>268</v>
+      </c>
+      <c r="D82">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="B83" t="s">
+        <v>270</v>
+      </c>
+      <c r="C83" t="s">
+        <v>271</v>
+      </c>
+      <c r="D83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="B84" t="s">
+        <v>273</v>
+      </c>
+      <c r="C84" t="s">
+        <v>274</v>
+      </c>
+      <c r="D84">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="B85" t="s">
+        <v>324</v>
+      </c>
+      <c r="C85" t="s">
+        <v>325</v>
+      </c>
+      <c r="D85">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="B86" t="s">
+        <v>276</v>
+      </c>
+      <c r="C86" t="s">
+        <v>277</v>
+      </c>
+      <c r="D86">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B87" t="s">
         <v>294</v>
       </c>
-      <c r="C75" t="s">
+      <c r="C87" t="s">
         <v>295</v>
       </c>
-      <c r="D75">
+      <c r="D87">
         <v>139</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:D87">
+    <sortCondition ref="A2:A87"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/code/bbgm_init_data.xlsx
+++ b/code/bbgm_init_data.xlsx
@@ -530,7 +530,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="357">
   <si>
     <t>MIN</t>
   </si>
@@ -745,12 +745,6 @@
     <t>Name</t>
   </si>
   <si>
-    <t>IOC3</t>
-  </si>
-  <si>
-    <t>IOC2</t>
-  </si>
-  <si>
     <t>Rank</t>
   </si>
   <si>
@@ -1526,6 +1520,87 @@
   </si>
   <si>
     <t>MK</t>
+  </si>
+  <si>
+    <t>Belarus</t>
+  </si>
+  <si>
+    <t>BLR</t>
+  </si>
+  <si>
+    <t>Estonia</t>
+  </si>
+  <si>
+    <t>EST</t>
+  </si>
+  <si>
+    <t>BY</t>
+  </si>
+  <si>
+    <t>EE</t>
+  </si>
+  <si>
+    <t>ISO3</t>
+  </si>
+  <si>
+    <t>ISO2</t>
+  </si>
+  <si>
+    <t>Austria</t>
+  </si>
+  <si>
+    <t>Bulgaria</t>
+  </si>
+  <si>
+    <t>England</t>
+  </si>
+  <si>
+    <t>AT</t>
+  </si>
+  <si>
+    <t>BG</t>
+  </si>
+  <si>
+    <t>AUT</t>
+  </si>
+  <si>
+    <t>BGR</t>
+  </si>
+  <si>
+    <t>Denmark</t>
+  </si>
+  <si>
+    <t>Portugal</t>
+  </si>
+  <si>
+    <t>DK</t>
+  </si>
+  <si>
+    <t>PT</t>
+  </si>
+  <si>
+    <t>DNK</t>
+  </si>
+  <si>
+    <t>PRT</t>
+  </si>
+  <si>
+    <t>Ireland</t>
+  </si>
+  <si>
+    <t>Slovakia</t>
+  </si>
+  <si>
+    <t>IE</t>
+  </si>
+  <si>
+    <t>SK</t>
+  </si>
+  <si>
+    <t>IRL</t>
+  </si>
+  <si>
+    <t>SVK</t>
   </si>
 </sst>
 </file>
@@ -2001,10 +2076,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D87"/>
+  <dimension ref="A1:D96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="B78" sqref="B78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2017,24 +2092,24 @@
         <v>70</v>
       </c>
       <c r="B1" t="s">
+        <v>336</v>
+      </c>
+      <c r="C1" t="s">
+        <v>337</v>
+      </c>
+      <c r="D1" t="s">
         <v>71</v>
-      </c>
-      <c r="C1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D1" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>276</v>
+      </c>
+      <c r="B2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C2" t="s">
         <v>278</v>
-      </c>
-      <c r="B2" t="s">
-        <v>279</v>
-      </c>
-      <c r="C2" t="s">
-        <v>280</v>
       </c>
       <c r="D2">
         <v>100</v>
@@ -2042,13 +2117,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" t="s">
         <v>74</v>
-      </c>
-      <c r="B3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C3" t="s">
-        <v>76</v>
       </c>
       <c r="D3">
         <v>32</v>
@@ -2056,13 +2131,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" t="s">
         <v>77</v>
-      </c>
-      <c r="B4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C4" t="s">
-        <v>79</v>
       </c>
       <c r="D4">
         <v>4</v>
@@ -2070,13 +2145,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C5" t="s">
         <v>80</v>
-      </c>
-      <c r="B5" t="s">
-        <v>81</v>
-      </c>
-      <c r="C5" t="s">
-        <v>82</v>
       </c>
       <c r="D5">
         <v>3</v>
@@ -2084,1149 +2159,1275 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>311</v>
+        <v>338</v>
       </c>
       <c r="B6" t="s">
-        <v>312</v>
+        <v>343</v>
       </c>
       <c r="C6" t="s">
-        <v>313</v>
+        <v>341</v>
       </c>
       <c r="D6">
-        <v>112</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>83</v>
+        <v>309</v>
       </c>
       <c r="B7" t="s">
-        <v>84</v>
+        <v>310</v>
       </c>
       <c r="C7" t="s">
-        <v>85</v>
+        <v>311</v>
       </c>
       <c r="D7">
-        <v>37</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>281</v>
+        <v>330</v>
       </c>
       <c r="B8" t="s">
-        <v>282</v>
+        <v>331</v>
       </c>
       <c r="C8" t="s">
-        <v>283</v>
+        <v>334</v>
       </c>
       <c r="D8">
-        <v>45</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B9" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C9" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D9">
-        <v>10</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>296</v>
+        <v>279</v>
       </c>
       <c r="B10" t="s">
-        <v>297</v>
+        <v>280</v>
       </c>
       <c r="C10" t="s">
-        <v>298</v>
+        <v>281</v>
       </c>
       <c r="D10">
-        <v>138</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B11" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C11" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D11">
-        <v>64</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>92</v>
+        <v>339</v>
       </c>
       <c r="B12" t="s">
-        <v>93</v>
+        <v>344</v>
       </c>
       <c r="C12" t="s">
-        <v>94</v>
+        <v>342</v>
       </c>
       <c r="D12">
-        <v>21</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>326</v>
+      <c r="A13" s="7" t="s">
+        <v>294</v>
       </c>
       <c r="B13" t="s">
-        <v>328</v>
+        <v>295</v>
       </c>
       <c r="C13" t="s">
-        <v>330</v>
+        <v>296</v>
       </c>
       <c r="D13">
-        <v>97</v>
+        <v>138</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="B14" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C14" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="D14">
-        <v>83</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>317</v>
+        <v>90</v>
       </c>
       <c r="B15" t="s">
-        <v>318</v>
+        <v>91</v>
       </c>
       <c r="C15" t="s">
-        <v>319</v>
+        <v>92</v>
       </c>
       <c r="D15">
-        <v>104</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
-        <v>98</v>
+      <c r="A16" t="s">
+        <v>324</v>
       </c>
       <c r="B16" t="s">
-        <v>99</v>
+        <v>326</v>
       </c>
       <c r="C16" t="s">
-        <v>100</v>
+        <v>328</v>
       </c>
       <c r="D16">
-        <v>28</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="B17" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="C17" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="D17">
-        <v>68</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="B18" t="s">
+        <v>316</v>
+      </c>
+      <c r="C18" t="s">
+        <v>317</v>
+      </c>
+      <c r="D18">
         <v>104</v>
-      </c>
-      <c r="B18" t="s">
-        <v>105</v>
-      </c>
-      <c r="C18" t="s">
-        <v>106</v>
-      </c>
-      <c r="D18">
-        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>284</v>
+        <v>96</v>
       </c>
       <c r="B19" t="s">
-        <v>285</v>
+        <v>97</v>
       </c>
       <c r="C19" t="s">
-        <v>286</v>
+        <v>98</v>
       </c>
       <c r="D19">
-        <v>63</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="B20" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="C20" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="D20">
-        <v>9</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="B21" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="C21" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="D21">
-        <v>89</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>113</v>
+        <v>282</v>
       </c>
       <c r="B22" t="s">
-        <v>114</v>
+        <v>283</v>
       </c>
       <c r="C22" t="s">
-        <v>115</v>
+        <v>284</v>
       </c>
       <c r="D22">
-        <v>19</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="B23" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="C23" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="D23">
-        <v>60</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="B24" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="C24" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="D24">
-        <v>34</v>
+        <v>89</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
-        <v>122</v>
+        <v>345</v>
       </c>
       <c r="B25" t="s">
-        <v>123</v>
+        <v>349</v>
       </c>
       <c r="C25" t="s">
-        <v>124</v>
+        <v>347</v>
       </c>
       <c r="D25">
-        <v>6</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
-        <v>287</v>
+        <v>111</v>
       </c>
       <c r="B26" t="s">
-        <v>288</v>
+        <v>112</v>
       </c>
       <c r="C26" t="s">
-        <v>289</v>
+        <v>113</v>
       </c>
       <c r="D26">
-        <v>136</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="B27" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="C27" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="D27">
-        <v>36</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
-        <v>128</v>
+        <v>340</v>
       </c>
       <c r="B28" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C28" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D28">
-        <v>18</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
-        <v>131</v>
+        <v>332</v>
       </c>
       <c r="B29" t="s">
-        <v>132</v>
+        <v>333</v>
       </c>
       <c r="C29" t="s">
-        <v>133</v>
+        <v>335</v>
       </c>
       <c r="D29">
-        <v>42</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="B30" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="C30" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="D30">
-        <v>7</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="B31" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="C31" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="D31">
-        <v>127</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
-        <v>140</v>
+        <v>285</v>
       </c>
       <c r="B32" t="s">
-        <v>141</v>
+        <v>286</v>
       </c>
       <c r="C32" t="s">
-        <v>142</v>
+        <v>287</v>
       </c>
       <c r="D32">
-        <v>114</v>
+        <v>136</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
-        <v>143</v>
+        <v>123</v>
       </c>
       <c r="B33" t="s">
-        <v>144</v>
+        <v>124</v>
       </c>
       <c r="C33" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="D33">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
-        <v>146</v>
+        <v>126</v>
       </c>
       <c r="B34" t="s">
-        <v>147</v>
+        <v>127</v>
       </c>
       <c r="C34" t="s">
-        <v>148</v>
+        <v>128</v>
       </c>
       <c r="D34">
-        <v>46</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
-        <v>149</v>
+        <v>129</v>
       </c>
       <c r="B35" t="s">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="C35" t="s">
-        <v>151</v>
+        <v>131</v>
       </c>
       <c r="D35">
-        <v>73</v>
+        <v>42</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
-        <v>152</v>
+        <v>132</v>
       </c>
       <c r="B36" t="s">
-        <v>153</v>
+        <v>133</v>
       </c>
       <c r="C36" t="s">
-        <v>154</v>
+        <v>134</v>
       </c>
       <c r="D36">
-        <v>22</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="B37" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
       <c r="C37" t="s">
-        <v>157</v>
+        <v>137</v>
       </c>
       <c r="D37">
-        <v>79</v>
+        <v>127</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
-        <v>158</v>
+        <v>138</v>
       </c>
       <c r="B38" t="s">
-        <v>159</v>
+        <v>139</v>
       </c>
       <c r="C38" t="s">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="D38">
-        <v>41</v>
+        <v>114</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
-        <v>161</v>
+        <v>141</v>
       </c>
       <c r="B39" t="s">
-        <v>162</v>
+        <v>142</v>
       </c>
       <c r="C39" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
       <c r="D39">
-        <v>12</v>
+        <v>39</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
-        <v>164</v>
+        <v>144</v>
       </c>
       <c r="B40" t="s">
-        <v>165</v>
+        <v>145</v>
       </c>
       <c r="C40" t="s">
-        <v>166</v>
+        <v>146</v>
       </c>
       <c r="D40">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
-        <v>167</v>
+        <v>147</v>
       </c>
       <c r="B41" t="s">
-        <v>168</v>
+        <v>148</v>
       </c>
       <c r="C41" t="s">
-        <v>169</v>
+        <v>149</v>
       </c>
       <c r="D41">
-        <v>40</v>
+        <v>73</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="B42" t="s">
-        <v>171</v>
+        <v>151</v>
       </c>
       <c r="C42" t="s">
-        <v>172</v>
+        <v>152</v>
       </c>
       <c r="D42">
-        <v>38</v>
+        <v>22</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
-        <v>173</v>
+        <v>153</v>
       </c>
       <c r="B43" t="s">
-        <v>174</v>
+        <v>154</v>
       </c>
       <c r="C43" t="s">
-        <v>175</v>
+        <v>155</v>
       </c>
       <c r="D43">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
-        <v>176</v>
+        <v>351</v>
       </c>
       <c r="B44" t="s">
-        <v>177</v>
+        <v>355</v>
       </c>
       <c r="C44" t="s">
-        <v>178</v>
+        <v>353</v>
       </c>
       <c r="D44">
-        <v>27</v>
+        <v>103</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
-        <v>179</v>
+        <v>156</v>
       </c>
       <c r="B45" t="s">
-        <v>180</v>
+        <v>157</v>
       </c>
       <c r="C45" t="s">
-        <v>181</v>
+        <v>158</v>
       </c>
       <c r="D45">
-        <v>57</v>
+        <v>41</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
-        <v>182</v>
+        <v>159</v>
       </c>
       <c r="B46" t="s">
-        <v>183</v>
+        <v>160</v>
       </c>
       <c r="C46" t="s">
-        <v>184</v>
+        <v>161</v>
       </c>
       <c r="D46">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
-        <v>299</v>
+        <v>162</v>
       </c>
       <c r="B47" t="s">
-        <v>300</v>
+        <v>163</v>
       </c>
       <c r="C47" t="s">
-        <v>301</v>
+        <v>164</v>
       </c>
       <c r="D47">
-        <v>121</v>
+        <v>48</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
-        <v>185</v>
+        <v>165</v>
       </c>
       <c r="B48" t="s">
-        <v>186</v>
+        <v>166</v>
       </c>
       <c r="C48" t="s">
-        <v>187</v>
+        <v>167</v>
       </c>
       <c r="D48">
-        <v>74</v>
+        <v>40</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
-        <v>188</v>
+        <v>168</v>
       </c>
       <c r="B49" t="s">
-        <v>189</v>
+        <v>169</v>
       </c>
       <c r="C49" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="D49">
-        <v>25</v>
+        <v>38</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
-        <v>191</v>
+        <v>171</v>
       </c>
       <c r="B50" t="s">
-        <v>192</v>
+        <v>172</v>
       </c>
       <c r="C50" t="s">
-        <v>193</v>
+        <v>173</v>
       </c>
       <c r="D50">
-        <v>26</v>
+        <v>75</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
-        <v>194</v>
+        <v>174</v>
       </c>
       <c r="B51" t="s">
-        <v>195</v>
+        <v>175</v>
       </c>
       <c r="C51" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
       <c r="D51">
-        <v>67</v>
+        <v>27</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
-        <v>197</v>
+        <v>177</v>
       </c>
       <c r="B52" t="s">
-        <v>198</v>
+        <v>178</v>
       </c>
       <c r="C52" t="s">
-        <v>199</v>
+        <v>179</v>
       </c>
       <c r="D52">
-        <v>93</v>
+        <v>57</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
-        <v>290</v>
+        <v>180</v>
       </c>
       <c r="B53" t="s">
-        <v>291</v>
+        <v>181</v>
       </c>
       <c r="C53" t="s">
-        <v>292</v>
+        <v>182</v>
       </c>
       <c r="D53">
-        <v>44</v>
+        <v>8</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
-        <v>200</v>
+        <v>297</v>
       </c>
       <c r="B54" t="s">
-        <v>201</v>
+        <v>298</v>
       </c>
       <c r="C54" t="s">
-        <v>202</v>
+        <v>299</v>
       </c>
       <c r="D54">
-        <v>24</v>
+        <v>121</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
-        <v>203</v>
+        <v>183</v>
       </c>
       <c r="B55" t="s">
-        <v>204</v>
+        <v>184</v>
       </c>
       <c r="C55" t="s">
-        <v>205</v>
+        <v>185</v>
       </c>
       <c r="D55">
-        <v>23</v>
+        <v>74</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>327</v>
+      <c r="A56" s="7" t="s">
+        <v>186</v>
       </c>
       <c r="B56" t="s">
-        <v>329</v>
+        <v>187</v>
       </c>
       <c r="C56" t="s">
-        <v>331</v>
+        <v>188</v>
       </c>
       <c r="D56">
-        <v>53</v>
+        <v>25</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
-        <v>206</v>
+        <v>189</v>
       </c>
       <c r="B57" t="s">
-        <v>207</v>
+        <v>190</v>
       </c>
       <c r="C57" t="s">
-        <v>208</v>
+        <v>191</v>
       </c>
       <c r="D57">
-        <v>47</v>
+        <v>26</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
-        <v>314</v>
+        <v>192</v>
       </c>
       <c r="B58" t="s">
-        <v>315</v>
+        <v>193</v>
       </c>
       <c r="C58" t="s">
-        <v>316</v>
+        <v>194</v>
       </c>
       <c r="D58">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
       <c r="B59" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="C59" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="D59">
-        <v>31</v>
+        <v>93</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
-        <v>212</v>
+        <v>288</v>
       </c>
       <c r="B60" t="s">
-        <v>213</v>
+        <v>289</v>
       </c>
       <c r="C60" t="s">
-        <v>214</v>
+        <v>290</v>
       </c>
       <c r="D60">
-        <v>13</v>
+        <v>44</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="7" t="s">
-        <v>215</v>
+        <v>198</v>
       </c>
       <c r="B61" t="s">
-        <v>216</v>
+        <v>199</v>
       </c>
       <c r="C61" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="D61">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="7" t="s">
-        <v>218</v>
+        <v>201</v>
       </c>
       <c r="B62" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
       <c r="C62" t="s">
-        <v>220</v>
+        <v>203</v>
       </c>
       <c r="D62">
-        <v>72</v>
+        <v>23</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="7" t="s">
-        <v>302</v>
+      <c r="A63" t="s">
+        <v>325</v>
       </c>
       <c r="B63" t="s">
-        <v>303</v>
+        <v>327</v>
       </c>
       <c r="C63" t="s">
-        <v>304</v>
+        <v>329</v>
       </c>
       <c r="D63">
-        <v>115</v>
+        <v>53</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="7" t="s">
-        <v>221</v>
+        <v>204</v>
       </c>
       <c r="B64" t="s">
-        <v>222</v>
+        <v>205</v>
       </c>
       <c r="C64" t="s">
-        <v>223</v>
+        <v>206</v>
       </c>
       <c r="D64">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="7" t="s">
-        <v>224</v>
+        <v>312</v>
       </c>
       <c r="B65" t="s">
-        <v>225</v>
+        <v>313</v>
       </c>
       <c r="C65" t="s">
-        <v>226</v>
+        <v>314</v>
       </c>
       <c r="D65">
-        <v>11</v>
+        <v>71</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="7" t="s">
-        <v>227</v>
+        <v>207</v>
       </c>
       <c r="B66" t="s">
-        <v>228</v>
+        <v>208</v>
       </c>
       <c r="C66" t="s">
-        <v>229</v>
+        <v>209</v>
       </c>
       <c r="D66">
-        <v>91</v>
+        <v>31</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="7" t="s">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="B67" t="s">
-        <v>231</v>
+        <v>211</v>
       </c>
       <c r="C67" t="s">
-        <v>232</v>
+        <v>212</v>
       </c>
       <c r="D67">
-        <v>35</v>
+        <v>13</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="7" t="s">
-        <v>233</v>
+        <v>346</v>
       </c>
       <c r="B68" t="s">
-        <v>234</v>
+        <v>350</v>
       </c>
       <c r="C68" t="s">
-        <v>235</v>
+        <v>348</v>
       </c>
       <c r="D68">
-        <v>5</v>
+        <v>62</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
-        <v>236</v>
+        <v>213</v>
       </c>
       <c r="B69" t="s">
-        <v>237</v>
+        <v>214</v>
       </c>
       <c r="C69" t="s">
-        <v>238</v>
+        <v>215</v>
       </c>
       <c r="D69">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="7" t="s">
-        <v>239</v>
+        <v>216</v>
       </c>
       <c r="B70" t="s">
-        <v>240</v>
+        <v>217</v>
       </c>
       <c r="C70" t="s">
-        <v>241</v>
+        <v>218</v>
       </c>
       <c r="D70">
-        <v>125</v>
+        <v>72</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="7" t="s">
-        <v>242</v>
+        <v>300</v>
       </c>
       <c r="B71" t="s">
-        <v>243</v>
+        <v>301</v>
       </c>
       <c r="C71" t="s">
-        <v>244</v>
+        <v>302</v>
       </c>
       <c r="D71">
-        <v>30</v>
+        <v>115</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="7" t="s">
-        <v>245</v>
+        <v>219</v>
       </c>
       <c r="B72" t="s">
-        <v>246</v>
+        <v>220</v>
       </c>
       <c r="C72" t="s">
-        <v>247</v>
+        <v>221</v>
       </c>
       <c r="D72">
-        <v>2</v>
+        <v>54</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="7" t="s">
-        <v>305</v>
+        <v>222</v>
       </c>
       <c r="B73" t="s">
-        <v>306</v>
+        <v>223</v>
       </c>
       <c r="C73" t="s">
-        <v>307</v>
+        <v>224</v>
       </c>
       <c r="D73">
-        <v>55</v>
+        <v>11</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="7" t="s">
-        <v>248</v>
+        <v>225</v>
       </c>
       <c r="B74" t="s">
-        <v>249</v>
+        <v>226</v>
       </c>
       <c r="C74" t="s">
-        <v>250</v>
+        <v>227</v>
       </c>
       <c r="D74">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="7" t="s">
-        <v>251</v>
+        <v>228</v>
       </c>
       <c r="B75" t="s">
-        <v>252</v>
+        <v>229</v>
       </c>
       <c r="C75" t="s">
-        <v>253</v>
+        <v>230</v>
       </c>
       <c r="D75">
-        <v>65</v>
+        <v>35</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="7" t="s">
-        <v>308</v>
+        <v>231</v>
       </c>
       <c r="B76" t="s">
-        <v>309</v>
+        <v>232</v>
       </c>
       <c r="C76" t="s">
-        <v>310</v>
+        <v>233</v>
       </c>
       <c r="D76">
-        <v>99</v>
+        <v>5</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="7" t="s">
-        <v>320</v>
+        <v>352</v>
       </c>
       <c r="B77" t="s">
-        <v>321</v>
+        <v>356</v>
       </c>
       <c r="C77" t="s">
-        <v>322</v>
+        <v>354</v>
       </c>
       <c r="D77">
-        <v>133</v>
+        <v>66</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="7" t="s">
-        <v>254</v>
+        <v>234</v>
       </c>
       <c r="B78" t="s">
-        <v>255</v>
+        <v>235</v>
       </c>
       <c r="C78" t="s">
-        <v>256</v>
+        <v>236</v>
       </c>
       <c r="D78">
-        <v>33</v>
+        <v>17</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="7" t="s">
-        <v>257</v>
+        <v>237</v>
       </c>
       <c r="B79" t="s">
-        <v>258</v>
+        <v>238</v>
       </c>
       <c r="C79" t="s">
-        <v>259</v>
+        <v>239</v>
       </c>
       <c r="D79">
-        <v>15</v>
+        <v>125</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="7" t="s">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="B80" t="s">
-        <v>261</v>
+        <v>241</v>
       </c>
       <c r="C80" t="s">
-        <v>262</v>
+        <v>242</v>
       </c>
       <c r="D80">
-        <v>51</v>
+        <v>30</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="7" t="s">
-        <v>263</v>
+        <v>243</v>
       </c>
       <c r="B81" t="s">
-        <v>264</v>
+        <v>244</v>
       </c>
       <c r="C81" t="s">
-        <v>265</v>
+        <v>245</v>
       </c>
       <c r="D81">
-        <v>101</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="7" t="s">
-        <v>266</v>
+        <v>303</v>
       </c>
       <c r="B82" t="s">
-        <v>267</v>
+        <v>304</v>
       </c>
       <c r="C82" t="s">
-        <v>268</v>
+        <v>305</v>
       </c>
       <c r="D82">
-        <v>29</v>
+        <v>55</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="7" t="s">
-        <v>269</v>
+        <v>246</v>
       </c>
       <c r="B83" t="s">
-        <v>270</v>
+        <v>247</v>
       </c>
       <c r="C83" t="s">
-        <v>271</v>
+        <v>248</v>
       </c>
       <c r="D83">
-        <v>1</v>
+        <v>95</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="7" t="s">
-        <v>272</v>
+        <v>249</v>
       </c>
       <c r="B84" t="s">
-        <v>273</v>
+        <v>250</v>
       </c>
       <c r="C84" t="s">
-        <v>274</v>
+        <v>251</v>
       </c>
       <c r="D84">
-        <v>43</v>
+        <v>65</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="7" t="s">
-        <v>323</v>
+        <v>306</v>
       </c>
       <c r="B85" t="s">
-        <v>324</v>
+        <v>307</v>
       </c>
       <c r="C85" t="s">
-        <v>325</v>
+        <v>308</v>
       </c>
       <c r="D85">
-        <v>169</v>
+        <v>99</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="7" t="s">
-        <v>275</v>
+        <v>318</v>
       </c>
       <c r="B86" t="s">
-        <v>276</v>
+        <v>319</v>
       </c>
       <c r="C86" t="s">
-        <v>277</v>
+        <v>320</v>
       </c>
       <c r="D86">
-        <v>20</v>
+        <v>133</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="B87" t="s">
+        <v>253</v>
+      </c>
+      <c r="C87" t="s">
+        <v>254</v>
+      </c>
+      <c r="D87">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="B88" t="s">
+        <v>256</v>
+      </c>
+      <c r="C88" t="s">
+        <v>257</v>
+      </c>
+      <c r="D88">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="B89" t="s">
+        <v>259</v>
+      </c>
+      <c r="C89" t="s">
+        <v>260</v>
+      </c>
+      <c r="D89">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="B90" t="s">
+        <v>262</v>
+      </c>
+      <c r="C90" t="s">
+        <v>263</v>
+      </c>
+      <c r="D90">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="B91" t="s">
+        <v>265</v>
+      </c>
+      <c r="C91" t="s">
+        <v>266</v>
+      </c>
+      <c r="D91">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="B92" t="s">
+        <v>268</v>
+      </c>
+      <c r="C92" t="s">
+        <v>269</v>
+      </c>
+      <c r="D92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="B93" t="s">
+        <v>271</v>
+      </c>
+      <c r="C93" t="s">
+        <v>272</v>
+      </c>
+      <c r="D93">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="B94" t="s">
+        <v>322</v>
+      </c>
+      <c r="C94" t="s">
+        <v>323</v>
+      </c>
+      <c r="D94">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="B95" t="s">
+        <v>274</v>
+      </c>
+      <c r="C95" t="s">
+        <v>275</v>
+      </c>
+      <c r="D95">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="B96" t="s">
+        <v>292</v>
+      </c>
+      <c r="C96" t="s">
         <v>293</v>
       </c>
-      <c r="B87" t="s">
-        <v>294</v>
-      </c>
-      <c r="C87" t="s">
-        <v>295</v>
-      </c>
-      <c r="D87">
+      <c r="D96">
         <v>139</v>
       </c>
     </row>
@@ -3241,10 +3442,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD46"/>
+  <dimension ref="A1:AD43"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42:B46"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5987,156 +6188,6 @@
       <c r="AB43" s="6"/>
       <c r="AC43" s="6"/>
       <c r="AD43" s="6"/>
-    </row>
-    <row r="44" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A44" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="B44" s="3">
-        <v>0</v>
-      </c>
-      <c r="C44" s="1">
-        <v>0</v>
-      </c>
-      <c r="D44" s="1">
-        <v>0</v>
-      </c>
-      <c r="E44" s="1">
-        <v>0</v>
-      </c>
-      <c r="F44" s="1">
-        <v>0</v>
-      </c>
-      <c r="G44" s="1">
-        <v>0</v>
-      </c>
-      <c r="H44" s="1">
-        <v>0</v>
-      </c>
-      <c r="I44" s="1">
-        <v>0</v>
-      </c>
-      <c r="J44" s="1">
-        <v>0</v>
-      </c>
-      <c r="K44" s="1">
-        <v>0</v>
-      </c>
-      <c r="L44" s="1">
-        <v>0</v>
-      </c>
-      <c r="M44" s="1">
-        <v>0</v>
-      </c>
-      <c r="N44" s="1">
-        <v>0</v>
-      </c>
-      <c r="O44" s="1">
-        <v>0</v>
-      </c>
-      <c r="P44" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A45" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="B45" s="3">
-        <v>0</v>
-      </c>
-      <c r="C45" s="1">
-        <v>0</v>
-      </c>
-      <c r="D45" s="1">
-        <v>0</v>
-      </c>
-      <c r="E45" s="1">
-        <v>0</v>
-      </c>
-      <c r="F45" s="1">
-        <v>0</v>
-      </c>
-      <c r="G45" s="1">
-        <v>0</v>
-      </c>
-      <c r="H45" s="1">
-        <v>0</v>
-      </c>
-      <c r="I45" s="1">
-        <v>0</v>
-      </c>
-      <c r="J45" s="1">
-        <v>0</v>
-      </c>
-      <c r="K45" s="1">
-        <v>0</v>
-      </c>
-      <c r="L45" s="1">
-        <v>0</v>
-      </c>
-      <c r="M45" s="1">
-        <v>0</v>
-      </c>
-      <c r="N45" s="1">
-        <v>0</v>
-      </c>
-      <c r="O45" s="1">
-        <v>0</v>
-      </c>
-      <c r="P45" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A46" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="B46" s="3">
-        <v>0</v>
-      </c>
-      <c r="C46" s="1">
-        <v>0</v>
-      </c>
-      <c r="D46" s="1">
-        <v>0</v>
-      </c>
-      <c r="E46" s="1">
-        <v>0</v>
-      </c>
-      <c r="F46" s="1">
-        <v>0</v>
-      </c>
-      <c r="G46" s="1">
-        <v>0</v>
-      </c>
-      <c r="H46" s="1">
-        <v>0</v>
-      </c>
-      <c r="I46" s="1">
-        <v>0</v>
-      </c>
-      <c r="J46" s="1">
-        <v>0</v>
-      </c>
-      <c r="K46" s="1">
-        <v>0</v>
-      </c>
-      <c r="L46" s="1">
-        <v>0</v>
-      </c>
-      <c r="M46" s="1">
-        <v>0</v>
-      </c>
-      <c r="N46" s="1">
-        <v>0</v>
-      </c>
-      <c r="O46" s="1">
-        <v>0</v>
-      </c>
-      <c r="P46" s="1">
-        <v>0</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
